--- a/biology/Zoologie/Episcada_salvinia/Episcada_salvinia.xlsx
+++ b/biology/Zoologie/Episcada_salvinia/Episcada_salvinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada salvinia est une espèce d'insectes lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Danainae et du genre Episcada.
 </t>
@@ -511,16 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada salvinia a été décrit par Henry Walter Bates en 1864 sous le nom initial d’Ithomia salvinia[1].
-Sous-espèces
-Episcada salvinia salvinia ; présent au Guatemala.
-Episcada salvinia apia (C. &amp; R. Felder, 1865) (synonyme : Episcada helena Haensch, 1905) ; présent en Colombie et en Équateur[2].
-Episcada salvinia opleri Lamas, 1978 ; présent au Costa Rica
-Episcada salvinia portilla (Maza &amp; Lamas, 1978) ; présent au Mexique[1].
-Nom vernaculaire
-Episcada salvinia se nomme Salvinia Clearwing ou Salvin's Ticlear en anglais ou Salvin's Clearwing et Episcada salvinia portilla 'Rusted' Salvin’s Clearwing[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada salvinia a été décrit par Henry Walter Bates en 1864 sous le nom initial d’Ithomia salvinia.
 </t>
         </is>
       </c>
@@ -546,14 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Episcada salvinia est un papillon d'une envergure d'environ 44 mm, à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne très concave[2].
-Les ailes sont transparentes avec de très fines veines et une bordure jaune d'or doré sur le dessus comme sur le revers.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Episcada salvinia salvinia ; présent au Guatemala.
+Episcada salvinia apia (C. &amp; R. Felder, 1865) (synonyme : Episcada helena Haensch, 1905) ; présent en Colombie et en Équateur.
+Episcada salvinia opleri Lamas, 1978 ; présent au Costa Rica
+Episcada salvinia portilla (Maza &amp; Lamas, 1978) ; présent au Mexique.</t>
         </is>
       </c>
     </row>
@@ -578,10 +592,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada salvinia se nomme Salvinia Clearwing ou Salvin's Ticlear en anglais ou Salvin's Clearwing et Episcada salvinia portilla 'Rusted' Salvin’s Clearwing,.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,15 +629,113 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada salvinia est un papillon d'une envergure d'environ 44 mm, à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne très concave.
+Les ailes sont transparentes avec de très fines veines et une bordure jaune d'or doré sur le dessus comme sur le revers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Episcada_salvinia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_salvinia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Episcada_salvinia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_salvinia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada salvinia est présent au Mexique, au Costa Rica, au Guatemala, au Panama, en Équateur et en Colombie[1],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada salvinia est présent au Mexique, au Costa Rica, au Guatemala, au Panama, en Équateur et en Colombie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Episcada_salvinia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_salvinia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
